--- a/2023/03项目/03 待评估/技术评估信息.xlsx
+++ b/2023/03项目/03 待评估/技术评估信息.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\03项目\03 待评估\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6CE76E-1EFA-4809-897F-F47423A5173D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424948ED-645B-4352-B559-6DF88AC1E0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="1" xr2:uid="{0B830835-F0B3-49F4-A31F-00C76B699521}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{0B830835-F0B3-49F4-A31F-00C76B699521}"/>
   </bookViews>
   <sheets>
     <sheet name="申请立项需求明细表" sheetId="3" r:id="rId1"/>
-    <sheet name="0419001_PTE 需求" sheetId="1" r:id="rId2"/>
-    <sheet name="0423001_XT_需求" sheetId="2" r:id="rId3"/>
+    <sheet name="方案技术评估表" sheetId="4" r:id="rId2"/>
+    <sheet name="0426001_力马微" sheetId="6" r:id="rId3"/>
+    <sheet name="0419001_PTE 需求" sheetId="1" r:id="rId4"/>
+    <sheet name="0423001_XT_需求" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
   <si>
     <t>方案技术评估</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +273,29 @@
       </rPr>
       <t>应用三：需评估DSP剩余资源</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力马微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comica科唛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案替代</t>
+  </si>
+  <si>
+    <t>100声卡软件需求(九音DSP)-20230419.docx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品功能需求Spec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品概述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,15 +428,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -422,6 +444,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -430,6 +455,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,49 +787,49 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="4:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="4:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="4:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="4:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="4:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="4:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="1"/>
@@ -813,7 +841,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="4:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="1"/>
@@ -853,7 +881,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="4:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="1"/>
@@ -893,14 +921,14 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="4:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="4:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E24" s="1"/>
@@ -921,11 +949,278 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FC4E56-6DBC-4667-9D1F-5904B81D7015}">
+  <dimension ref="B2:D15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="75.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="2:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="2:4" ht="79.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="2:4" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B7:D7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5" xr:uid="{8A34D6E8-D076-46DC-AAD7-A833F0332BB4}">
+      <formula1>"内部预研,方案替代,可行性评估,"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B962C210-E482-4C87-9872-570FBA6D2BD5}">
+  <dimension ref="B2:D16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="66.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="2:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="2:4" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="2:4" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B8:D8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5" xr:uid="{2B0C6A22-02FC-4CDA-9ADE-DE79F0A0527C}">
+      <formula1>"内部预研,方案替代,可行性评估,"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41226747-782F-4F96-A714-22EC60A5990A}">
   <dimension ref="D2:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -936,45 +1231,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -984,74 +1279,74 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="4:6" ht="79.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="4:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1071,7 +1366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234ED197-0950-46D5-8CBB-2F5DF24FA677}">
   <dimension ref="D2:F13"/>
   <sheetViews>
@@ -1087,108 +1382,108 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="4:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>32</v>
       </c>
     </row>

--- a/2023/03项目/03 待评估/技术评估信息.xlsx
+++ b/2023/03项目/03 待评估/技术评估信息.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\03项目\03 待评估\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424948ED-645B-4352-B559-6DF88AC1E0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B08504F-00BB-4511-BE75-BED908D36EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{0B830835-F0B3-49F4-A31F-00C76B699521}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{0B830835-F0B3-49F4-A31F-00C76B699521}"/>
   </bookViews>
   <sheets>
-    <sheet name="申请立项需求明细表" sheetId="3" r:id="rId1"/>
-    <sheet name="方案技术评估表" sheetId="4" r:id="rId2"/>
-    <sheet name="0426001_力马微" sheetId="6" r:id="rId3"/>
-    <sheet name="0419001_PTE 需求" sheetId="1" r:id="rId4"/>
-    <sheet name="0423001_XT_需求" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
+    <sheet name="申请立项需求明细表" sheetId="3" r:id="rId2"/>
+    <sheet name="方案技术评估表" sheetId="4" r:id="rId3"/>
+    <sheet name="0426001_力马微" sheetId="6" r:id="rId4"/>
+    <sheet name="0419001_PTE 需求" sheetId="1" r:id="rId5"/>
+    <sheet name="0423001_XT_需求" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
   <si>
     <t>方案技术评估</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,6 +297,26 @@
   </si>
   <si>
     <t>产品概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战略合作伙伴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售评估先行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,6 +465,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -455,9 +479,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,11 +793,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C46BE8-BBBF-4254-8C12-C937D73C0618}">
+  <dimension ref="C4:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADDB2C-FCF9-4507-A030-4132826CBAE8}">
   <dimension ref="D3:F25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -787,11 +857,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="4:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
@@ -948,125 +1018,129 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FC4E56-6DBC-4667-9D1F-5904B81D7015}">
-  <dimension ref="B2:D15"/>
+  <dimension ref="E1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="75.21875" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" customWidth="1"/>
+    <col min="7" max="7" width="75.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="5:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="5:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="5:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="5:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="5:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="5:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="5:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="5:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="5:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="2:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="5:7" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="5:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="5:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="2:4" ht="79.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="5:7" ht="79.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="5:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="2:4" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="5:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="5:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="5:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="5:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="G18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5" xr:uid="{8A34D6E8-D076-46DC-AAD7-A833F0332BB4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8" xr:uid="{8A34D6E8-D076-46DC-AAD7-A833F0332BB4}">
       <formula1>"内部预研,方案替代,可行性评估,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1074,11 +1148,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B962C210-E482-4C87-9872-570FBA6D2BD5}">
   <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1090,11 +1164,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1134,15 +1208,15 @@
     </row>
     <row r="7" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="2:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -1215,7 +1289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41226747-782F-4F96-A714-22EC60A5990A}">
   <dimension ref="D2:F15"/>
   <sheetViews>
@@ -1231,11 +1305,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
@@ -1274,9 +1348,9 @@
       </c>
     </row>
     <row r="7" spans="4:6" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
@@ -1366,7 +1440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234ED197-0950-46D5-8CBB-2F5DF24FA677}">
   <dimension ref="D2:F13"/>
   <sheetViews>
@@ -1382,11 +1456,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">

--- a/2023/03项目/03 待评估/技术评估信息.xlsx
+++ b/2023/03项目/03 待评估/技术评估信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\03项目\03 待评估\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B08504F-00BB-4511-BE75-BED908D36EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A96163-3D4A-4AE7-B64E-89915205039D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{0B830835-F0B3-49F4-A31F-00C76B699521}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="17040" activeTab="5" xr2:uid="{0B830835-F0B3-49F4-A31F-00C76B699521}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="90">
   <si>
     <t>方案技术评估</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,6 +317,131 @@
   </si>
   <si>
     <t>销售评估先行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参会人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富东总、开冬、宗波、白蓉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦克风经过前置放大器后输入到九音DSP的ADC，九音DSP再转成I2S信号给到声卡DSP，声卡DSP通过降噪控制IO电平控制降噪是否开启，高电平表示开启降噪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅听耳机：
+方案1：在原有设计上外挂DSP，解决降噪问题。
+方案2：九音提供待降噪算法的SDK，客户自行植入补偿算法。
+推荐方案1，方案2的资源估计不够用，不推荐（具体待和客户面议）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认KWS 算法模型资源 - 只支持固定的10个离线词：开冬确认，语音控制+降噪方案，DSP资源是否够用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无线麦部分：
+九音可以提供前端Mic解决方案（单麦降噪（AI降噪方案），或4Mic拾音（丰禾原方案））</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初评信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白蓉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术评估结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案评估没问题，项目时间没问题：
+1）使用48K采样率降噪算法的临时版本，完成完整的通路需求
+2）提供Cadence IDE的开发License申请流程给终端客户自行开发
+3）节后提供SDK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估结论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直播麦克风（带单麦降噪功能）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双路ECM麦克风，经过前级放大电路后Mix，再开始单麦降噪；
+参考已有福志麦克风，确认前级放大增益，是否对算法有影响，除此之外无其他技术风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100声卡项目属于原有旧产品升级，原产品整体规格参数偏低，降噪效果不好，整体销量偏差。
+该声卡最近在美国参展，有客户对产品感兴趣，科唛计划升级此款声卡规格，出国外市场。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌面麦克风（带单麦降噪）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采样率固定在48kHz/24bit，音频通路如下：
+两个ECM 麦克风-&gt;SNC8600 双路ADC-&gt;Mix-&gt;降噪-&gt;IIS-&gt;声卡控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. L通道的ADC增益设置为0dB，R通道的ADC增益设置为6dB。
+2. L/R通道进入到DSP后，先进行音频合并（混合）。开启降噪时，使用合并的声音进行降噪。
+3. 采样率固定在48kHz/24bit
+4. I2S设置为从模式，输出/输入功能均实现。
+   I2S1_CLK = 3.072MHz
+   I2S1_WS = 48kHz
+5. 降噪功能
+   DENOISE_EN设置为输入下拉，检测到高电平时开启降噪功能，检测到低电平关闭降噪。降噪等级需要后期测试调整。
+6. DAC输出
+  DAC只输出I2S接收到的内容
+  DAC输出的增益设置为0dB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无主控信息，不影响方案输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX端增加USB接口，
+TX端算法暂用IKKO解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用一评估结论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用二评估结论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用三评估结论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,15 +500,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -443,13 +580,211 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -465,9 +800,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -479,6 +811,72 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,7 +1194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C46BE8-BBBF-4254-8C12-C937D73C0618}">
   <dimension ref="C4:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -846,7 +1244,7 @@
   <dimension ref="D3:F25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -857,11 +1255,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="4:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
@@ -1022,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FC4E56-6DBC-4667-9D1F-5904B81D7015}">
   <dimension ref="E1:G18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:G21"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1038,11 +1436,11 @@
     <row r="3" spans="5:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="5:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="5:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="5:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="2" t="s">
@@ -1073,9 +1471,9 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="5:7" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="5:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="2" t="s">
@@ -1150,138 +1548,204 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B962C210-E482-4C87-9872-570FBA6D2BD5}">
-  <dimension ref="B2:D16"/>
+  <dimension ref="B1:D21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="66.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="3.6640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="66.33203125" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="2:4" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+    <row r="7" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="5" t="s">
+    <row r="8" spans="2:4" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="30"/>
+      <c r="C8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="2:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="D8" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="2:4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="2:4" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="D12" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+      <c r="C13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="D13" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="2:4" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="183.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="30"/>
+      <c r="C17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+      <c r="D17" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="30"/>
+      <c r="C18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D18" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="2:4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="26"/>
+      <c r="C21" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5" xr:uid="{2B0C6A22-02FC-4CDA-9ADE-DE79F0A0527C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{2B0C6A22-02FC-4CDA-9ADE-DE79F0A0527C}">
       <formula1>"内部预研,方案替代,可行性评估,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1291,147 +1755,220 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41226747-782F-4F96-A714-22EC60A5990A}">
-  <dimension ref="D2:F15"/>
+  <dimension ref="D1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="3.6640625" customWidth="1"/>
     <col min="5" max="5" width="24.77734375" customWidth="1"/>
-    <col min="6" max="6" width="75.21875" customWidth="1"/>
+    <col min="6" max="6" width="89.109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="4:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="4:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="2" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="4:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="2" t="s">
+    <row r="5" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="2" t="s">
+    <row r="6" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="2" t="s">
+    <row r="7" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="4:6" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
+    <row r="8" spans="4:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+    <row r="11" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="21"/>
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F11" s="22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="4:6" ht="79.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+    <row r="12" spans="4:6" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="21"/>
+      <c r="E12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F12" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="2" t="s">
+    <row r="13" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="4:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="2" t="s">
+    <row r="14" spans="4:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="4" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="2" t="s">
+    <row r="15" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+    <row r="16" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="21"/>
+      <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F16" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+    <row r="17" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="21"/>
+      <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F17" s="22" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="18" spans="4:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="24"/>
+      <c r="E20" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="25"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="21"/>
+      <c r="E22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="26"/>
+      <c r="E23" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D20:D21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5" xr:uid="{2E52ED70-33EF-4163-BDF0-DE436A14BDD2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6" xr:uid="{2E52ED70-33EF-4163-BDF0-DE436A14BDD2}">
       <formula1>"内部预研,方案替代,可行性评估,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1442,10 +1979,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234ED197-0950-46D5-8CBB-2F5DF24FA677}">
-  <dimension ref="D2:F13"/>
+  <dimension ref="D1:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1455,119 +1992,171 @@
     <col min="6" max="6" width="78.88671875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="4:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="4:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="2" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="4:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="2" t="s">
+    <row r="5" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="2" t="s">
+    <row r="6" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="2" t="s">
+    <row r="7" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="2" t="s">
+    <row r="8" spans="4:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+    <row r="11" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="21"/>
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F11" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="2" t="s">
+    <row r="12" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="2" t="s">
+    <row r="13" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="4" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="4:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="2" t="s">
+    <row r="14" spans="4:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="4" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+    <row r="15" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="21"/>
+      <c r="E15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F15" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
+    <row r="16" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="21"/>
+      <c r="E16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F16" s="22" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="17" spans="4:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="26"/>
+      <c r="E19" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5" xr:uid="{D7E1C8A0-1858-47CD-886E-0799D1CD9369}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6" xr:uid="{D7E1C8A0-1858-47CD-886E-0799D1CD9369}">
       <formula1>"内部预研,方案替代,可行性评估,"</formula1>
     </dataValidation>
   </dataValidations>
